--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationPattern.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationPattern.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationPattern.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationRespirationPattern.xlsx
@@ -244,50 +244,50 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -949,7 +949,7 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>71</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -968,25 +968,25 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1037,13 +1037,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1052,12 +1052,12 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1080,7 +1080,7 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>26</v>
@@ -1125,19 +1125,19 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>72</v>
@@ -1149,7 +1149,7 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>71</v>
@@ -1165,10 +1165,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1242,10 +1242,10 @@
         <v>90</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1270,7 +1270,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1343,7 +1343,7 @@
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1368,25 +1368,25 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1437,13 +1437,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1452,7 +1452,7 @@
         <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>106</v>
@@ -1527,19 +1527,19 @@
         <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AB8" t="s" s="2">
+      <c r="AC8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AC8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD8" t="s" s="2">
+      <c r="AE8" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
@@ -1551,10 +1551,10 @@
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -1570,7 +1570,7 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1672,7 +1672,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1684,7 +1684,7 @@
         <v>110</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>119</v>
@@ -1751,7 +1751,7 @@
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
